--- a/testData/Opencart_LoginData.xlsx
+++ b/testData/Opencart_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\Java Saves\Opencart\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8033E9A2-13C0-41C0-84B3-ED00CD01FAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFE77A2-8D1B-497C-8DFB-D623411A869F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -162,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -182,6 +182,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -497,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,6 +586,15 @@
       </c>
       <c r="C7" s="6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
